--- a/FieldData/2015/heading_template.xlsx
+++ b/FieldData/2015/heading_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F948BAB-DFD7-4966-B169-D2D00707108F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{2F948BAB-DFD7-4966-B169-D2D00707108F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32537129-3200-4BD8-87F6-D0A36A499786}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="2715" windowWidth="17460" windowHeight="11445" xr2:uid="{09A2D3AE-6C29-4EEA-9EFD-8D03F82757F3}"/>
+    <workbookView xWindow="735" yWindow="480" windowWidth="20865" windowHeight="13575" xr2:uid="{09A2D3AE-6C29-4EEA-9EFD-8D03F82757F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,10 +64,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -448,7 +448,7 @@
     <col min="8" max="8" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,5 +476,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>